--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Acvr2a.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Bmp15</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp15</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H2">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>0.9512197940902222</v>
+        <v>0.8726047005413334</v>
       </c>
       <c r="R2">
-        <v>8.560978146811999</v>
+        <v>7.853442304872</v>
       </c>
       <c r="S2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="T2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H3">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>1.533196832657778</v>
+        <v>1.479171491946667</v>
       </c>
       <c r="R3">
-        <v>13.79877149392</v>
+        <v>13.31254342752</v>
       </c>
       <c r="S3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="T3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H4">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>0.4843882388628888</v>
+        <v>1.4071395629</v>
       </c>
       <c r="R4">
-        <v>4.359494149765999</v>
+        <v>12.6642560661</v>
       </c>
       <c r="S4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="T4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H5">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>0.2456318344013333</v>
+        <v>0.2495494832613333</v>
       </c>
       <c r="R5">
-        <v>2.210686509612</v>
+        <v>2.245945349352</v>
       </c>
       <c r="S5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="T5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
     </row>
   </sheetData>
